--- a/currentbuild/StructureDefinition-no-doc-Trustframework-Patient.xlsx
+++ b/currentbuild/StructureDefinition-no-doc-Trustframework-Patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T11:47:09+00:00</t>
+    <t>2024-09-10T12:02:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-no-doc-Trustframework-Patient.xlsx
+++ b/currentbuild/StructureDefinition-no-doc-Trustframework-Patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T12:02:36+00:00</t>
+    <t>2024-09-10T12:10:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-no-doc-Trustframework-Patient.xlsx
+++ b/currentbuild/StructureDefinition-no-doc-Trustframework-Patient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.6</t>
+    <t>0.9.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T12:10:45+00:00</t>
+    <t>2024-09-11T05:52:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-no-doc-Trustframework-Patient.xlsx
+++ b/currentbuild/StructureDefinition-no-doc-Trustframework-Patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-11T05:52:58+00:00</t>
+    <t>2024-09-11T06:02:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
